--- a/data/survey_risposte_240123.xlsx
+++ b/data/survey_risposte_240123.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonella\Desktop\bbdataeng\bb4FAIR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federica/Documents/GitHub/BB4FAIR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27214CF-C82C-40F6-8A04-A3E0DF7316B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25155B8A-7F92-9046-B61D-E2D80A6B4BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5260" yWindow="-21600" windowWidth="19160" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -364,24 +353,6 @@
     <t>Operatore Biobanca</t>
   </si>
   <si>
-    <t>Gestione dei campioni;Gestione della qualità;Gestione dei dati associati ai campioni;</t>
-  </si>
-  <si>
-    <t>tecnici di laboratorio;biotecnologi;biologia molecolare;esperto qualità;</t>
-  </si>
-  <si>
-    <t>da una facility istituzionale dedicata</t>
-  </si>
-  <si>
-    <t>Proteomica;Metabolomica;Genomica;trascrittomica, radiomica e Multiplex Spatial Profiling;</t>
-  </si>
-  <si>
-    <t>facilities afferenti al parco tecnologico GSTeP</t>
-  </si>
-  <si>
-    <t>Physiological dataset;Clinical dataset;Body (Radiological) image;</t>
-  </si>
-  <si>
     <t>tecnici di laboratorio;</t>
   </si>
   <si>
@@ -394,27 +365,9 @@
     <t>no;</t>
   </si>
   <si>
-    <t>tecnici di laboratorio;biologia molecolare;biotecnologi;esperto qualità;</t>
-  </si>
-  <si>
-    <t>fornitore esterno, commerciale (e.g., AWS, Azure, etc.)</t>
-  </si>
-  <si>
     <t>malattie rare;</t>
   </si>
   <si>
-    <t>Biochemical dataset;Clinical dataset;Genomic dataset (sequences);Genomic dataset (variants);</t>
-  </si>
-  <si>
-    <t>tecnici di laboratorio;esperto qualità;biologi, medici;</t>
-  </si>
-  <si>
-    <t>malattie rare;oncologia;diabetologia, cardiologia, neurologia,;</t>
-  </si>
-  <si>
-    <t>Lifestyle dataset;Clinical dataset;</t>
-  </si>
-  <si>
     <t>nessuno;</t>
   </si>
   <si>
@@ -550,33 +503,12 @@
     <t>Psychological dataset;Biochemical dataset;Body (Radiological) image;Clinical dataset;</t>
   </si>
   <si>
-    <t>Biologi;informatici;esperto qualità;</t>
-  </si>
-  <si>
     <t>Terminologie: SNOMED CT;Terminologie: ICD-10;Terminologie: ICD-9;</t>
   </si>
   <si>
     <t>su cloud</t>
   </si>
   <si>
-    <t>oncologia;Neurologia, Cardiologia;</t>
-  </si>
-  <si>
-    <t>Physiological dataset;Biochemical dataset;Clinical dataset;Proteomic dataset;Metabolomic dataset;Body (Radiological) image;Whole slide image;Photo image;Genomic dataset (sequences);Lifestyle dataset;Genomic dataset (variants);</t>
-  </si>
-  <si>
-    <t>biotecnologi;esperto qualità;</t>
-  </si>
-  <si>
-    <t>malattie rare;oncologia;Malattie cardiologiche, Malattie Neurologiche;</t>
-  </si>
-  <si>
-    <t>Physiological dataset;Clinical dataset;Body (Radiological) image;Molecular data;</t>
-  </si>
-  <si>
-    <t>No;</t>
-  </si>
-  <si>
     <t>Gestione dei campioni;Gestione dei dati associati ai campioni;Compliance etico-legale- sociale (consensi informati, protezione dei dati, ritorno dei risultati, accesso);Gestione della qualità;</t>
   </si>
   <si>
@@ -622,30 +554,6 @@
     <t>è possìbile incrociare i dati con il sìstema informativo clinico dell'infrastruttura a cui afferisce la biobanca;ma non in modo automatizzato;</t>
   </si>
   <si>
-    <t>Executive Coordinator , Data Processing Manager of Biobank Quality referent of Biobank</t>
-  </si>
-  <si>
-    <t>tecnici di laboratorio;biotecnologi;bioinformatici;data manager;esperto qualità;esperto protezione dei dati;</t>
-  </si>
-  <si>
-    <t>Terminologie: SNOMED CT;tutte le terminologie presenti nelle diagnosi e nella cartella clinica;</t>
-  </si>
-  <si>
-    <t>dal personale biobanca dedicato e dai sistemi operativi interni all'istituto</t>
-  </si>
-  <si>
-    <t>computer fisico dedicato;area di rete storage dati condivisa;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strumenti scanner e altro dedicati </t>
-  </si>
-  <si>
-    <t>Clinical dataset;Lifestyle dataset;scelte effettuate con il consenso alla ricerca;</t>
-  </si>
-  <si>
-    <t>i dati proventi dalle integrazioni sopra elencati;</t>
-  </si>
-  <si>
     <t>Responsabile Biobanca</t>
   </si>
   <si>
@@ -892,24 +800,9 @@
     <t>Gestione dei campioni;Gestione dei dati associati ai campioni;</t>
   </si>
   <si>
-    <t>tecnici di laboratorio;biotecnologi;biologia molecolare;data scientist;bioinformatici;</t>
-  </si>
-  <si>
     <t>macchina virtuale;software containers;</t>
   </si>
   <si>
-    <t>Proteomica;Metabolomica;Genomica;Trascrittomica;</t>
-  </si>
-  <si>
-    <t>oncologia;malattie cronico-degenerative (ad esempio diabete, insulino-resistenza);</t>
-  </si>
-  <si>
-    <t>Biochemical dataset;Lifestyle dataset;Clinical dataset;Genomic dataset (variants);</t>
-  </si>
-  <si>
-    <t>NESSUNA ASSOCIAZIONE ALLE PRECEDENTI TERMINOLOGIE;</t>
-  </si>
-  <si>
     <t>Responsabile operativo biobanca</t>
   </si>
   <si>
@@ -949,63 +842,9 @@
     <t>tassonomie come ICTV o EMBL;</t>
   </si>
   <si>
-    <t>Quality Manager Biobanca</t>
-  </si>
-  <si>
-    <t>biotecnologi;biologia molecolare;esperto protezione dei dati;Ingegneria clinica, anatomopatologo, ;esperto qualità;</t>
-  </si>
-  <si>
-    <t>CRIOSMART fornisce un sistema di acquisizione gestione dei dati.</t>
-  </si>
-  <si>
-    <t>Clinical dataset;Physiological dataset;</t>
-  </si>
-  <si>
     <t>Nessuna;</t>
   </si>
   <si>
-    <t>coordinatore CRB-IGB-CNR</t>
-  </si>
-  <si>
-    <t>Compliance etico-legale- sociale (consensi informati, protezione dei dati, ritorno dei risultati, accesso);Gestione dei campioni;Gestione dei dati associati ai campioni;</t>
-  </si>
-  <si>
-    <t>biotecnologi;biologia molecolare;bioinformatici;data scientist;esperto protezione dei dati;informatici;</t>
-  </si>
-  <si>
-    <t>malattie rare;oncologia;genetica di popolazioni;</t>
-  </si>
-  <si>
-    <t>Biochemical dataset;Clinical dataset;Genomic dataset (sequences);Genomic dataset (variants);Proteomic dataset;Genealogical records;Lifestyle dataset;</t>
-  </si>
-  <si>
-    <t>Coordinatore Scientifico</t>
-  </si>
-  <si>
-    <t>tecnici di laboratorio;biotecnologi;biologia molecolare;informatici;data scientist;bioinformatici;esperto protezione dei dati;esperto qualità;medici con diverse specialità;</t>
-  </si>
-  <si>
-    <t>Terminologie: ICD-9;Terminologie: ICD-10;Ontologie: OBIB;</t>
-  </si>
-  <si>
-    <t>ICD-9, ICD-10, OMOP CDM5.4, standard di comunicazione HL7 e DICOM</t>
-  </si>
-  <si>
-    <t>macchina virtuale;software containers;computer fisico dedicato;cloud AWS;</t>
-  </si>
-  <si>
-    <t>digital cytopathology, microscopia elettronica, elettrofisiologia</t>
-  </si>
-  <si>
-    <t>oncologia;malattie rare;neurodegenrative, cardiologiche, dismetaboliche, sindroma di Down e emicraniae;</t>
-  </si>
-  <si>
-    <t>Lifestyle dataset;Physiological dataset;Biochemical dataset;Clinical dataset;Genomic dataset (variants);Proteomic dataset;Body (Radiological) image;Photo image;Genealogical records;non tutti i casi hanno tutte le tipologie di informazioni sopra riportate ;</t>
-  </si>
-  <si>
-    <t>OMIM;MIABIS;MESH;NCIt;ORDO;OBIB;</t>
-  </si>
-  <si>
     <t>biologia molecolare;bioinformatici;esperto qualità;Biologi;</t>
   </si>
   <si>
@@ -1040,6 +879,66 @@
   </si>
   <si>
     <t>Data Base in Access</t>
+  </si>
+  <si>
+    <t>BIMS1</t>
+  </si>
+  <si>
+    <t>BIMS2</t>
+  </si>
+  <si>
+    <t>BIMS3</t>
+  </si>
+  <si>
+    <t>BIMS5</t>
+  </si>
+  <si>
+    <t>BIMS7</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>BIMS4</t>
+  </si>
+  <si>
+    <t>BIMS6</t>
+  </si>
+  <si>
+    <t>in sviluppo</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Parzialmente</t>
+  </si>
+  <si>
+    <t>non è collegato</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +982,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
     <dxf>
@@ -1232,8 +1131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR48" totalsRowShown="0">
-  <autoFilter ref="A1:AR48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR1048576" totalsRowShown="0">
+  <autoFilter ref="A1:AR1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="44">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ora di inizio" dataDxfId="42"/>
@@ -1581,22 +1480,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR48"/>
+  <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2:AM48"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="60.7109375" customWidth="1"/>
-    <col min="22" max="44" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="44" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1743,7 +1642,6 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2">
         <v>1</v>
       </c>
@@ -1778,10 +1676,10 @@
         <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="W2" t="s">
         <v>46</v>
@@ -1844,9 +1742,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1858,9 +1755,7 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3">
-        <f>G2+1</f>
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -1897,10 +1792,10 @@
         <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
@@ -1954,9 +1849,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A48" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1968,9 +1862,7 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4">
-        <f t="shared" ref="G4:G48" si="1">G3+1</f>
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -2003,12 +1895,6 @@
       <c r="S4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
       <c r="V4" t="s">
         <v>72</v>
       </c>
@@ -2061,9 +1947,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -2075,9 +1960,7 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -2114,10 +1997,10 @@
         <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s">
         <v>46</v>
@@ -2177,9 +2060,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -2191,15 +2073,10 @@
       <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
@@ -2229,12 +2106,6 @@
       <c r="S6" t="s">
         <v>49</v>
       </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
       <c r="V6" t="s">
         <v>89</v>
       </c>
@@ -2296,9 +2167,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -2310,9 +2180,7 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H7" t="s">
@@ -2349,10 +2217,10 @@
         <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="W7" t="s">
         <v>46</v>
@@ -2415,27 +2283,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45167.466493055603</v>
+        <v>45167.636851851901</v>
       </c>
       <c r="C8" s="1">
-        <v>45167.472685185203</v>
+        <v>45167.649166666699</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>44</v>
@@ -2447,70 +2312,61 @@
         <v>46</v>
       </c>
       <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
         <v>105</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
+        <v>281</v>
+      </c>
+      <c r="U8" t="s">
+        <v>296</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8" t="s">
         <v>106</v>
       </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="AJ8" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AK8" t="s">
         <v>108</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>84</v>
       </c>
       <c r="AL8" t="s">
         <v>49</v>
@@ -2528,39 +2384,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45167.636851851901</v>
+        <v>45169.341087963003</v>
       </c>
       <c r="C9" s="1">
-        <v>45167.649166666699</v>
+        <v>45169.370428240698</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
       <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
         <v>111</v>
@@ -2575,49 +2422,52 @@
         <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>113</v>
       </c>
       <c r="AB9" t="s">
         <v>49</v>
       </c>
       <c r="AD9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE9" t="s">
         <v>44</v>
       </c>
+      <c r="AF9" t="s">
+        <v>65</v>
+      </c>
       <c r="AG9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AJ9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="AL9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM9" t="s">
         <v>44</v>
@@ -2632,27 +2482,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45168.413773148102</v>
+        <v>45169.598622685196</v>
       </c>
       <c r="C10" s="1">
-        <v>45168.458124999997</v>
+        <v>45169.618865740696</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
@@ -2661,64 +2508,70 @@
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>117</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V10" t="s">
+        <v>118</v>
       </c>
       <c r="W10" t="s">
         <v>46</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG10" t="s">
         <v>63</v>
       </c>
-      <c r="Z10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>49</v>
-      </c>
       <c r="AI10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AJ10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="AL10" t="s">
         <v>58</v>
@@ -2727,33 +2580,30 @@
         <v>44</v>
       </c>
       <c r="AN10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AP10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45168.590995370403</v>
+        <v>45170.450289351902</v>
       </c>
       <c r="C11" s="1">
-        <v>45168.6027777778</v>
+        <v>45170.470613425903</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -2768,10 +2618,13 @@
         <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
+        <v>127</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
@@ -2780,28 +2633,31 @@
         <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
       </c>
       <c r="W11" t="s">
         <v>49</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>128</v>
       </c>
       <c r="AB11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>52</v>
       </c>
       <c r="AD11" t="s">
         <v>49</v>
@@ -2813,13 +2669,13 @@
         <v>49</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s">
         <v>49</v>
@@ -2834,27 +2690,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45169.341087963003</v>
+        <v>45173.638136574104</v>
       </c>
       <c r="C12" s="1">
-        <v>45169.370428240698</v>
+        <v>45173.663240740701</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>44</v>
@@ -2863,10 +2716,13 @@
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s">
         <v>49</v>
@@ -2878,58 +2734,58 @@
         <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB12" t="s">
         <v>63</v>
       </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>49</v>
-      </c>
       <c r="AD12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="s">
         <v>44</v>
       </c>
       <c r="AF12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>135</v>
       </c>
       <c r="AI12" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="AL12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM12" t="s">
         <v>44</v>
@@ -2938,33 +2794,39 @@
         <v>46</v>
       </c>
       <c r="AO12" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AP12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45169.598622685196</v>
+        <v>45174.375833333303</v>
       </c>
       <c r="C13" s="1">
-        <v>45169.618865740696</v>
+        <v>45174.396608796298</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>45174.408159722203</v>
+      </c>
       <c r="G13">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>44</v>
@@ -2976,73 +2838,67 @@
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>143</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="U13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="W13" t="s">
         <v>46</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="AB13" t="s">
         <v>49</v>
       </c>
       <c r="AD13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE13" t="s">
         <v>44</v>
       </c>
-      <c r="AF13" t="s">
-        <v>133</v>
-      </c>
       <c r="AG13" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>144</v>
       </c>
       <c r="AI13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="AL13" t="s">
         <v>58</v>
@@ -3054,30 +2910,33 @@
         <v>49</v>
       </c>
       <c r="AP13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45170.450289351902</v>
+        <v>45175.381307870397</v>
       </c>
       <c r="C14" s="1">
-        <v>45170.470613425903</v>
+        <v>45175.3878819444</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
@@ -3089,49 +2948,46 @@
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
         <v>46</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="W14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s">
         <v>50</v>
       </c>
       <c r="Y14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="s">
         <v>46</v>
       </c>
       <c r="AA14" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="AB14" t="s">
         <v>46</v>
@@ -3140,174 +2996,169 @@
         <v>52</v>
       </c>
       <c r="AD14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AE14" t="s">
         <v>44</v>
       </c>
+      <c r="AF14" t="s">
+        <v>151</v>
+      </c>
       <c r="AG14" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>152</v>
       </c>
       <c r="AI14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45177.467071759304</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45177.530821759297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s">
+        <v>291</v>
+      </c>
+      <c r="U15" t="s">
+        <v>300</v>
+      </c>
+      <c r="W15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI15" t="s">
         <v>82</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP14" t="s">
+      <c r="AJ15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45173.638136574104</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45173.663240740701</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45174.375833333303</v>
+        <v>45177.533530092602</v>
       </c>
       <c r="C16" s="1">
-        <v>45174.396608796298</v>
+        <v>45177.574282407397</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1">
-        <v>45174.408159722203</v>
-      </c>
       <c r="G16">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H16" t="s">
@@ -3323,46 +3174,46 @@
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
         <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V16" t="s">
+        <v>72</v>
       </c>
       <c r="W16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X16" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s">
         <v>46</v>
       </c>
       <c r="Z16" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>79</v>
       </c>
       <c r="AB16" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>52</v>
       </c>
       <c r="AD16" t="s">
         <v>49</v>
@@ -3374,389 +3225,341 @@
         <v>46</v>
       </c>
       <c r="AH16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45180.459155092598</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45180.469351851803</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45181.695833333302</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45180.626064814802</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45180.657384259299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s">
+        <v>292</v>
+      </c>
+      <c r="U18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45180.672395833302</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45180.684722222199</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC19" t="s">
         <v>156</v>
       </c>
-      <c r="AI16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AD19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL19" t="s">
         <v>58</v>
       </c>
-      <c r="AM16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>152</v>
+      <c r="AM19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45175.381307870397</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45175.3878819444</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" t="s">
-        <v>161</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" t="s">
-        <v>44</v>
-      </c>
-      <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45176.598587963003</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45176.640243055597</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" t="s">
-        <v>46</v>
-      </c>
-      <c r="X18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45177.400497685201</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45177.412789351903</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
-      </c>
-      <c r="P19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>45177.467071759304</v>
+        <v>45182.5542361111</v>
       </c>
       <c r="C20" s="1">
-        <v>45177.530821759297</v>
+        <v>45182.589560185203</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="G20">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H20" t="s">
@@ -3772,19 +3575,22 @@
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N20" t="s">
         <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>183</v>
       </c>
       <c r="R20" t="s">
         <v>49</v>
@@ -3793,55 +3599,52 @@
         <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="U20" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="W20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="Y20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z20" t="s">
         <v>46</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="AB20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="AD20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE20" t="s">
         <v>44</v>
       </c>
+      <c r="AF20" t="s">
+        <v>184</v>
+      </c>
       <c r="AG20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AJ20" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AL20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM20" t="s">
         <v>44</v>
@@ -3856,27 +3659,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>45177.533530092602</v>
+        <v>45182.59</v>
       </c>
       <c r="C21" s="1">
-        <v>45177.574282407397</v>
+        <v>45182.610393518502</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
         <v>44</v>
@@ -3891,156 +3691,160 @@
         <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="O21" t="s">
+        <v>188</v>
       </c>
       <c r="P21" t="s">
         <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="U21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45182.7168634259</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45182.723599536999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>195</v>
+      </c>
+      <c r="N22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" t="s">
+        <v>281</v>
+      </c>
+      <c r="U22" t="s">
         <v>78</v>
       </c>
-      <c r="Y21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" t="s">
         <v>52</v>
       </c>
-      <c r="AD21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45180.459155092598</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45180.469351851803</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45181.695833333302</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" t="s">
-        <v>185</v>
-      </c>
-      <c r="N22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" t="s">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s">
-        <v>72</v>
-      </c>
-      <c r="W22" t="s">
-        <v>46</v>
-      </c>
-      <c r="X22" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>49</v>
-      </c>
       <c r="AD22" t="s">
         <v>46</v>
       </c>
@@ -4048,22 +3852,22 @@
         <v>44</v>
       </c>
       <c r="AF22" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s">
         <v>46</v>
       </c>
       <c r="AH22" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AI22" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="AJ22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AK22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="s">
         <v>58</v>
@@ -4075,90 +3879,69 @@
         <v>46</v>
       </c>
       <c r="AO22" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="AP22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>45180.510879629597</v>
+        <v>45182.723206018498</v>
       </c>
       <c r="C23" s="1">
-        <v>45180.524687500001</v>
+        <v>45182.7350925926</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
       <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M23" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="P23" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
         <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s">
-        <v>44</v>
-      </c>
-      <c r="U23" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V23" t="s">
+        <v>72</v>
       </c>
       <c r="W23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X23" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="Y23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="AB23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD23" t="s">
         <v>49</v>
@@ -4170,19 +3953,16 @@
         <v>65</v>
       </c>
       <c r="AG23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s">
         <v>82</v>
       </c>
       <c r="AJ23" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AK23" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="AL23" t="s">
         <v>49</v>
@@ -4191,39 +3971,33 @@
         <v>44</v>
       </c>
       <c r="AN23" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>59</v>
       </c>
       <c r="AP23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>45180.626064814802</v>
+        <v>45181.416701388902</v>
       </c>
       <c r="C24" s="1">
-        <v>45180.657384259299</v>
+        <v>45183.486238425903</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
         <v>44</v>
@@ -4235,40 +4009,49 @@
         <v>49</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
+        <v>205</v>
       </c>
       <c r="P24" t="s">
         <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
         <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="U24" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="W24" t="s">
         <v>46</v>
       </c>
       <c r="X24" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="Y24" t="s">
         <v>49</v>
       </c>
       <c r="Z24" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>91</v>
       </c>
       <c r="AB24" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>52</v>
       </c>
       <c r="AD24" t="s">
         <v>46</v>
@@ -4276,55 +4059,52 @@
       <c r="AE24" t="s">
         <v>44</v>
       </c>
-      <c r="AF24" t="s">
-        <v>201</v>
-      </c>
       <c r="AG24" t="s">
         <v>49</v>
       </c>
       <c r="AI24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AJ24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s">
         <v>84</v>
       </c>
       <c r="AL24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM24" t="s">
         <v>44</v>
       </c>
       <c r="AN24" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>59</v>
       </c>
       <c r="AP24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>45180.672395833302</v>
+        <v>45183.513182870403</v>
       </c>
       <c r="C25" s="1">
-        <v>45180.684722222199</v>
+        <v>45183.520509259302</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>
@@ -4333,40 +4113,46 @@
         <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>209</v>
+      </c>
+      <c r="R25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s">
+        <v>285</v>
+      </c>
+      <c r="U25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25" t="s">
         <v>63</v>
       </c>
-      <c r="P25" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25" t="s">
-        <v>49</v>
-      </c>
-      <c r="S25" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" t="s">
-        <v>44</v>
-      </c>
-      <c r="U25" t="s">
-        <v>44</v>
-      </c>
-      <c r="V25" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" t="s">
-        <v>46</v>
-      </c>
       <c r="X25" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="Y25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z25" t="s">
         <v>46</v>
@@ -4378,7 +4164,7 @@
         <v>46</v>
       </c>
       <c r="AC25" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AD25" t="s">
         <v>46</v>
@@ -4387,19 +4173,22 @@
         <v>44</v>
       </c>
       <c r="AG25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>198</v>
       </c>
       <c r="AI25" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AK25" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="AL25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM25" t="s">
         <v>44</v>
@@ -4411,27 +4200,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>45182.5542361111</v>
+        <v>45183.579548611102</v>
       </c>
       <c r="C26" s="1">
-        <v>45182.589560185203</v>
+        <v>45183.5839583333</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
         <v>44</v>
@@ -4443,22 +4229,19 @@
         <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N26" t="s">
         <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="R26" t="s">
         <v>49</v>
@@ -4467,28 +4250,25 @@
         <v>46</v>
       </c>
       <c r="T26" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Z26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="AB26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AD26" t="s">
         <v>49</v>
@@ -4496,23 +4276,20 @@
       <c r="AE26" t="s">
         <v>44</v>
       </c>
-      <c r="AF26" t="s">
-        <v>211</v>
-      </c>
       <c r="AG26" t="s">
         <v>49</v>
       </c>
       <c r="AI26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AJ26" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="AK26" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="AL26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM26" t="s">
         <v>44</v>
@@ -4527,32 +4304,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>45182.59</v>
+        <v>45184.503842592603</v>
       </c>
       <c r="C27" s="1">
-        <v>45182.610393518502</v>
+        <v>45184.554363425901</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27" t="s">
@@ -4562,13 +4333,13 @@
         <v>47</v>
       </c>
       <c r="M27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s">
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P27" t="s">
         <v>49</v>
@@ -4580,10 +4351,10 @@
         <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="U27" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="W27" t="s">
         <v>46</v>
@@ -4592,80 +4363,68 @@
         <v>50</v>
       </c>
       <c r="Y27" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="Z27" t="s">
         <v>49</v>
       </c>
       <c r="AB27" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AD27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE27" t="s">
         <v>44</v>
       </c>
       <c r="AF27" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="AI27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AJ27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK27" t="s">
         <v>218</v>
       </c>
-      <c r="AK27" t="s">
-        <v>219</v>
-      </c>
       <c r="AL27" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM27" t="s">
         <v>44</v>
       </c>
       <c r="AN27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="AP27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>45182.7168634259</v>
+        <v>45184.462731481501</v>
       </c>
       <c r="C28" s="1">
-        <v>45182.723599536999</v>
+        <v>45184.631203703699</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28" t="s">
@@ -4675,17 +4434,17 @@
         <v>47</v>
       </c>
       <c r="M28" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" t="s">
         <v>222</v>
       </c>
-      <c r="N28" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" t="s">
-        <v>168</v>
-      </c>
-      <c r="P28" t="s">
-        <v>49</v>
-      </c>
       <c r="R28" t="s">
         <v>49</v>
       </c>
@@ -4693,55 +4452,52 @@
         <v>46</v>
       </c>
       <c r="T28" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="U28" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s">
         <v>46</v>
       </c>
       <c r="X28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF28" t="s">
         <v>223</v>
       </c>
-      <c r="Y28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AG28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s">
         <v>224</v>
       </c>
-      <c r="AB28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>225</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>226</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>227</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>228</v>
       </c>
       <c r="AL28" t="s">
         <v>58</v>
@@ -4750,36 +4506,30 @@
         <v>44</v>
       </c>
       <c r="AN28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AP28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>45182.723206018498</v>
+        <v>45184.627175925903</v>
       </c>
       <c r="C29" s="1">
-        <v>45182.7350925926</v>
+        <v>45184.636400463001</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
@@ -4788,46 +4538,55 @@
         <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
       </c>
       <c r="M29" t="s">
         <v>229</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="O29" t="s">
+        <v>230</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>231</v>
       </c>
       <c r="R29" t="s">
         <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="U29" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X29" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="Y29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z29" t="s">
         <v>49</v>
       </c>
       <c r="AB29" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>52</v>
       </c>
       <c r="AD29" t="s">
         <v>49</v>
@@ -4835,20 +4594,17 @@
       <c r="AE29" t="s">
         <v>44</v>
       </c>
-      <c r="AF29" t="s">
-        <v>65</v>
-      </c>
       <c r="AG29" t="s">
         <v>49</v>
       </c>
       <c r="AI29" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="AJ29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="AL29" t="s">
         <v>49</v>
@@ -4866,27 +4622,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>45181.416701388902</v>
+        <v>45184.647164351903</v>
       </c>
       <c r="C30" s="1">
-        <v>45183.486238425903</v>
+        <v>45184.658460648097</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="1"/>
       <c r="G30">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="I30" t="s">
         <v>44</v>
@@ -4898,28 +4651,28 @@
         <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s">
         <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
         <v>46</v>
       </c>
       <c r="T30" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="W30" t="s">
         <v>46</v>
@@ -4931,10 +4684,7 @@
         <v>49</v>
       </c>
       <c r="Z30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AB30" t="s">
         <v>46</v>
@@ -4948,20 +4698,23 @@
       <c r="AE30" t="s">
         <v>44</v>
       </c>
+      <c r="AF30" t="s">
+        <v>65</v>
+      </c>
       <c r="AG30" t="s">
         <v>49</v>
       </c>
       <c r="AI30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AJ30" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM30" t="s">
         <v>44</v>
@@ -4976,23 +4729,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>45183.513182870403</v>
+        <v>45184.681898148097</v>
       </c>
       <c r="C31" s="1">
-        <v>45183.520509259302</v>
+        <v>45184.691377314797</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="1"/>
       <c r="G31">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H31" t="s">
@@ -5011,19 +4761,19 @@
         <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N31" t="s">
         <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="P31" t="s">
         <v>46</v>
       </c>
       <c r="Q31" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="R31" t="s">
         <v>46</v>
@@ -5032,31 +4782,31 @@
         <v>46</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="U31" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="X31" t="s">
         <v>50</v>
       </c>
       <c r="Y31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z31" t="s">
         <v>46</v>
       </c>
       <c r="AA31" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="AB31" t="s">
         <v>46</v>
       </c>
       <c r="AC31" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="AD31" t="s">
         <v>46</v>
@@ -5064,20 +4814,23 @@
       <c r="AE31" t="s">
         <v>44</v>
       </c>
+      <c r="AF31" t="s">
+        <v>121</v>
+      </c>
       <c r="AG31" t="s">
         <v>46</v>
       </c>
       <c r="AH31" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="AI31" t="s">
         <v>82</v>
       </c>
       <c r="AJ31" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AK31" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s">
         <v>49</v>
@@ -5086,33 +4839,33 @@
         <v>44</v>
       </c>
       <c r="AN31" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>59</v>
       </c>
       <c r="AP31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>45183.579548611102</v>
+        <v>45184.644942129598</v>
       </c>
       <c r="C32" s="1">
-        <v>45183.5839583333</v>
+        <v>45184.7022222222</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="1"/>
       <c r="G32">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
         <v>44</v>
@@ -5124,64 +4877,67 @@
         <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="M32" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s">
         <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" t="s">
+        <v>249</v>
+      </c>
+      <c r="W32" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD32" t="s">
         <v>63</v>
       </c>
-      <c r="R32" t="s">
-        <v>49</v>
-      </c>
-      <c r="S32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" t="s">
-        <v>44</v>
-      </c>
-      <c r="U32" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" t="s">
-        <v>46</v>
-      </c>
-      <c r="X32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>49</v>
-      </c>
       <c r="AE32" t="s">
         <v>44</v>
       </c>
+      <c r="AF32" t="s">
+        <v>250</v>
+      </c>
       <c r="AG32" t="s">
         <v>49</v>
       </c>
       <c r="AI32" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AJ32" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="AK32" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AL32" t="s">
         <v>49</v>
@@ -5190,36 +4946,30 @@
         <v>44</v>
       </c>
       <c r="AN32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AP32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>45184.503842592603</v>
+        <v>45230.350219907399</v>
       </c>
       <c r="C33" s="1">
-        <v>45184.554363425901</v>
+        <v>45230.358263888898</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="1"/>
       <c r="G33">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="I33" t="s">
         <v>44</v>
@@ -5231,16 +4981,16 @@
         <v>46</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s">
         <v>46</v>
       </c>
       <c r="O33" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="P33" t="s">
         <v>49</v>
@@ -5252,46 +5002,49 @@
         <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="W33" t="s">
         <v>46</v>
       </c>
       <c r="X33" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="Y33" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="Z33" t="s">
         <v>49</v>
       </c>
       <c r="AB33" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AD33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AE33" t="s">
         <v>44</v>
       </c>
       <c r="AF33" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="AG33" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>259</v>
       </c>
       <c r="AI33" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AK33" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s">
         <v>49</v>
@@ -5300,33 +5053,33 @@
         <v>44</v>
       </c>
       <c r="AN33" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>262</v>
       </c>
       <c r="AP33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>45184.462731481501</v>
+        <v>45259.337962963</v>
       </c>
       <c r="C34" s="1">
-        <v>45184.631203703699</v>
+        <v>45259.3563194444</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="1"/>
       <c r="G34">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="I34" t="s">
         <v>44</v>
@@ -5338,19 +5091,16 @@
         <v>46</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s">
         <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
         <v>49</v>
@@ -5359,16 +5109,16 @@
         <v>46</v>
       </c>
       <c r="T34" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="U34" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W34" t="s">
         <v>46</v>
       </c>
       <c r="X34" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Y34" t="s">
         <v>46</v>
@@ -5380,7 +5130,10 @@
         <v>91</v>
       </c>
       <c r="AB34" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>52</v>
       </c>
       <c r="AD34" t="s">
         <v>46</v>
@@ -5389,25 +5142,22 @@
         <v>44</v>
       </c>
       <c r="AF34" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="AG34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AJ34" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="AK34" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM34" t="s">
         <v>44</v>
@@ -5419,54 +5169,42 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>45184.627175925903</v>
+        <v>45259.648252314801</v>
       </c>
       <c r="C35" s="1">
-        <v>45184.636400463001</v>
+        <v>45259.669513888897</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="1"/>
       <c r="G35">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
         <v>44</v>
       </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
       <c r="K35" t="s">
         <v>46</v>
       </c>
       <c r="L35" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O35" t="s">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
         <v>49</v>
@@ -5475,10 +5213,10 @@
         <v>46</v>
       </c>
       <c r="T35" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="U35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W35" t="s">
         <v>46</v>
@@ -5490,34 +5228,37 @@
         <v>46</v>
       </c>
       <c r="Z35" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>270</v>
       </c>
       <c r="AB35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AD35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="s">
         <v>44</v>
       </c>
+      <c r="AF35" t="s">
+        <v>65</v>
+      </c>
       <c r="AG35" t="s">
         <v>49</v>
       </c>
       <c r="AI35" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="AJ35" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AK35" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="AL35" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM35" t="s">
         <v>44</v>
@@ -5532,27 +5273,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>45184.647164351903</v>
+        <v>45260.4227777778</v>
       </c>
       <c r="C36" s="1">
-        <v>45184.658460648097</v>
+        <v>45260.477928240703</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="1"/>
       <c r="G36">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I36" t="s">
         <v>44</v>
@@ -5564,13 +5302,13 @@
         <v>49</v>
       </c>
       <c r="M36" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N36" t="s">
         <v>46</v>
       </c>
       <c r="O36" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P36" t="s">
         <v>49</v>
@@ -5582,10 +5320,10 @@
         <v>46</v>
       </c>
       <c r="T36" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="U36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W36" t="s">
         <v>46</v>
@@ -5594,37 +5332,34 @@
         <v>50</v>
       </c>
       <c r="Y36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z36" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>254</v>
       </c>
       <c r="AB36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE36" t="s">
         <v>44</v>
       </c>
-      <c r="AF36" t="s">
-        <v>65</v>
-      </c>
       <c r="AG36" t="s">
         <v>49</v>
       </c>
       <c r="AI36" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AJ36" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s">
         <v>49</v>
@@ -5633,36 +5368,30 @@
         <v>44</v>
       </c>
       <c r="AN36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AP36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>45184.681898148097</v>
+        <v>45279.614340277803</v>
       </c>
       <c r="C37" s="1">
-        <v>45184.691377314797</v>
+        <v>45279.647037037001</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="1"/>
       <c r="G37">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
         <v>44</v>
@@ -5671,58 +5400,43 @@
         <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M37" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s">
         <v>46</v>
       </c>
       <c r="O37" t="s">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" t="s">
-        <v>44</v>
-      </c>
-      <c r="U37" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="V37" t="s">
+        <v>72</v>
       </c>
       <c r="W37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X37" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Y37" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Z37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="AB37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AD37" t="s">
         <v>46</v>
@@ -5730,23 +5444,17 @@
       <c r="AE37" t="s">
         <v>44</v>
       </c>
-      <c r="AF37" t="s">
-        <v>133</v>
-      </c>
       <c r="AG37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="AI37" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AJ37" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="AL37" t="s">
         <v>49</v>
@@ -5764,27 +5472,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>45184.644942129598</v>
+        <v>45279.6898842593</v>
       </c>
       <c r="C38" s="1">
-        <v>45184.7022222222</v>
+        <v>45279.698564814797</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="1"/>
       <c r="G38">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
@@ -5796,16 +5501,13 @@
         <v>46</v>
       </c>
       <c r="L38" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M38" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="P38" t="s">
         <v>49</v>
@@ -5816,14 +5518,8 @@
       <c r="S38" t="s">
         <v>49</v>
       </c>
-      <c r="T38" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" t="s">
-        <v>44</v>
-      </c>
       <c r="V38" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="W38" t="s">
         <v>46</v>
@@ -5832,37 +5528,34 @@
         <v>64</v>
       </c>
       <c r="Y38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AB38" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AD38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG38" t="s">
         <v>63</v>
       </c>
-      <c r="AE38" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>49</v>
-      </c>
       <c r="AI38" t="s">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="AJ38" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="AK38" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="AL38" t="s">
         <v>49</v>
@@ -5871,1106 +5564,12 @@
         <v>44</v>
       </c>
       <c r="AN38" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>59</v>
       </c>
       <c r="AP38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45223.488923611098</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45223.5151273148</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" t="s">
-        <v>280</v>
-      </c>
-      <c r="M39" t="s">
-        <v>281</v>
-      </c>
-      <c r="N39" t="s">
-        <v>49</v>
-      </c>
-      <c r="P39" t="s">
-        <v>49</v>
-      </c>
-      <c r="R39" t="s">
-        <v>49</v>
-      </c>
-      <c r="S39" t="s">
-        <v>49</v>
-      </c>
-      <c r="T39" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" t="s">
-        <v>44</v>
-      </c>
-      <c r="V39" t="s">
-        <v>72</v>
-      </c>
-      <c r="W39" t="s">
-        <v>46</v>
-      </c>
-      <c r="X39" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>286</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45230.350219907399</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45230.358263888898</v>
-      </c>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="H40" t="s">
-        <v>287</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" t="s">
-        <v>280</v>
-      </c>
-      <c r="M40" t="s">
-        <v>288</v>
-      </c>
-      <c r="N40" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" t="s">
-        <v>289</v>
-      </c>
-      <c r="P40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40" t="s">
-        <v>49</v>
-      </c>
-      <c r="S40" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" t="s">
-        <v>44</v>
-      </c>
-      <c r="W40" t="s">
-        <v>46</v>
-      </c>
-      <c r="X40" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>291</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45259.337962963</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45259.3563194444</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>295</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" t="s">
-        <v>95</v>
-      </c>
-      <c r="M41" t="s">
-        <v>296</v>
-      </c>
-      <c r="N41" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" t="s">
-        <v>49</v>
-      </c>
-      <c r="R41" t="s">
-        <v>49</v>
-      </c>
-      <c r="S41" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41" t="s">
-        <v>44</v>
-      </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="W41" t="s">
-        <v>46</v>
-      </c>
-      <c r="X41" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>298</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45259.400300925903</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45259.416944444398</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>300</v>
-      </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" t="s">
-        <v>49</v>
-      </c>
-      <c r="M42" t="s">
-        <v>301</v>
-      </c>
-      <c r="N42" t="s">
-        <v>49</v>
-      </c>
-      <c r="P42" t="s">
-        <v>49</v>
-      </c>
-      <c r="R42" t="s">
-        <v>49</v>
-      </c>
-      <c r="S42" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" t="s">
-        <v>44</v>
-      </c>
-      <c r="U42" t="s">
-        <v>44</v>
-      </c>
-      <c r="W42" t="s">
-        <v>49</v>
-      </c>
-      <c r="X42" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45259.651689814797</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45259.665092592601</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="H43" t="s">
-        <v>305</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" t="s">
-        <v>306</v>
-      </c>
-      <c r="M43" t="s">
-        <v>307</v>
-      </c>
-      <c r="N43" t="s">
-        <v>49</v>
-      </c>
-      <c r="P43" t="s">
-        <v>49</v>
-      </c>
-      <c r="R43" t="s">
-        <v>49</v>
-      </c>
-      <c r="S43" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43" t="s">
-        <v>44</v>
-      </c>
-      <c r="U43" t="s">
-        <v>44</v>
-      </c>
-      <c r="V43" t="s">
-        <v>72</v>
-      </c>
-      <c r="W43" t="s">
-        <v>46</v>
-      </c>
-      <c r="X43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>308</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45259.634606481501</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45259.668379629598</v>
-      </c>
-      <c r="D44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="H44" t="s">
-        <v>310</v>
-      </c>
-      <c r="I44" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" t="s">
-        <v>311</v>
-      </c>
-      <c r="N44" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" t="s">
-        <v>312</v>
-      </c>
-      <c r="P44" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>313</v>
-      </c>
-      <c r="R44" t="s">
-        <v>46</v>
-      </c>
-      <c r="S44" t="s">
-        <v>46</v>
-      </c>
-      <c r="T44" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" t="s">
-        <v>44</v>
-      </c>
-      <c r="W44" t="s">
-        <v>46</v>
-      </c>
-      <c r="X44" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45259.648252314801</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45259.669513888897</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="H45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" t="s">
-        <v>46</v>
-      </c>
-      <c r="L45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M45" t="s">
-        <v>319</v>
-      </c>
-      <c r="N45" t="s">
-        <v>49</v>
-      </c>
-      <c r="P45" t="s">
-        <v>49</v>
-      </c>
-      <c r="R45" t="s">
-        <v>49</v>
-      </c>
-      <c r="S45" t="s">
-        <v>46</v>
-      </c>
-      <c r="T45" t="s">
-        <v>44</v>
-      </c>
-      <c r="U45" t="s">
-        <v>44</v>
-      </c>
-      <c r="W45" t="s">
-        <v>46</v>
-      </c>
-      <c r="X45" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>321</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45260.4227777778</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45260.477928240703</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H46" t="s">
-        <v>322</v>
-      </c>
-      <c r="I46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" t="s">
-        <v>49</v>
-      </c>
-      <c r="M46" t="s">
-        <v>323</v>
-      </c>
-      <c r="N46" t="s">
-        <v>46</v>
-      </c>
-      <c r="O46" t="s">
-        <v>324</v>
-      </c>
-      <c r="P46" t="s">
-        <v>49</v>
-      </c>
-      <c r="R46" t="s">
-        <v>49</v>
-      </c>
-      <c r="S46" t="s">
-        <v>46</v>
-      </c>
-      <c r="T46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U46" t="s">
-        <v>44</v>
-      </c>
-      <c r="W46" t="s">
-        <v>46</v>
-      </c>
-      <c r="X46" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45279.614340277803</v>
-      </c>
-      <c r="C47" s="1">
-        <v>45279.647037037001</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" t="s">
-        <v>49</v>
-      </c>
-      <c r="M47" t="s">
-        <v>327</v>
-      </c>
-      <c r="N47" t="s">
-        <v>46</v>
-      </c>
-      <c r="O47" t="s">
-        <v>77</v>
-      </c>
-      <c r="P47" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47" t="s">
-        <v>49</v>
-      </c>
-      <c r="S47" t="s">
-        <v>49</v>
-      </c>
-      <c r="T47" t="s">
-        <v>44</v>
-      </c>
-      <c r="U47" t="s">
-        <v>44</v>
-      </c>
-      <c r="V47" t="s">
-        <v>72</v>
-      </c>
-      <c r="W47" t="s">
-        <v>49</v>
-      </c>
-      <c r="X47" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45279.6898842593</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45279.698564814797</v>
-      </c>
-      <c r="D48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="H48" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48" t="s">
-        <v>329</v>
-      </c>
-      <c r="N48" t="s">
-        <v>49</v>
-      </c>
-      <c r="P48" t="s">
-        <v>49</v>
-      </c>
-      <c r="R48" t="s">
-        <v>49</v>
-      </c>
-      <c r="S48" t="s">
-        <v>49</v>
-      </c>
-      <c r="T48" t="s">
-        <v>44</v>
-      </c>
-      <c r="U48" t="s">
-        <v>44</v>
-      </c>
-      <c r="V48" t="s">
-        <v>330</v>
-      </c>
-      <c r="W48" t="s">
-        <v>46</v>
-      </c>
-      <c r="X48" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP48" t="s">
         <v>49</v>
       </c>
     </row>
